--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,43 +525,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.35683168113936</v>
+        <v>8.650723999999999</v>
       </c>
       <c r="H2">
-        <v>7.35683168113936</v>
+        <v>25.952172</v>
       </c>
       <c r="I2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="J2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.70633651492367</v>
+        <v>5.194209333333333</v>
       </c>
       <c r="N2">
-        <v>2.70633651492367</v>
+        <v>15.582628</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>19.91006221281474</v>
+        <v>44.93367134089065</v>
       </c>
       <c r="R2">
-        <v>19.91006221281474</v>
+        <v>404.403042068016</v>
       </c>
       <c r="S2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
       <c r="T2">
-        <v>0.2150519668159116</v>
+        <v>0.2392268437287548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,43 +587,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.0755537969347</v>
+        <v>26.269711</v>
       </c>
       <c r="H3">
-        <v>26.0755537969347</v>
+        <v>78.809133</v>
       </c>
       <c r="I3">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="J3">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.70633651492367</v>
+        <v>5.194209333333333</v>
       </c>
       <c r="N3">
-        <v>2.70633651492367</v>
+        <v>15.582628</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>70.56922338750091</v>
+        <v>136.4503780601693</v>
       </c>
       <c r="R3">
-        <v>70.56922338750091</v>
+        <v>1228.053402541524</v>
       </c>
       <c r="S3">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
       <c r="T3">
-        <v>0.762230179089331</v>
+        <v>0.7264617444963627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,185 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.021265</v>
+      </c>
+      <c r="H4">
+        <v>0.063795</v>
+      </c>
+      <c r="I4">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="J4">
+        <v>0.0005880616271992925</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5.194209333333333</v>
+      </c>
+      <c r="N4">
+        <v>15.582628</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.1104548614733333</v>
+      </c>
+      <c r="R4">
+        <v>0.99409375326</v>
+      </c>
+      <c r="S4">
+        <v>0.0005880616271992926</v>
+      </c>
+      <c r="T4">
+        <v>0.0005880616271992925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.77716763629918</v>
-      </c>
-      <c r="H4">
-        <v>0.77716763629918</v>
-      </c>
-      <c r="I4">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="J4">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.70633651492367</v>
-      </c>
-      <c r="N4">
-        <v>2.70633651492367</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2.103277152333389</v>
-      </c>
-      <c r="R4">
-        <v>2.103277152333389</v>
-      </c>
-      <c r="S4">
-        <v>0.02271785409475725</v>
-      </c>
-      <c r="T4">
-        <v>0.02271785409475725</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3188806666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.956642</v>
+      </c>
+      <c r="I5">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="J5">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.194209333333333</v>
+      </c>
+      <c r="N5">
+        <v>15.582628</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1.656332935019555</v>
+      </c>
+      <c r="R5">
+        <v>14.906996415176</v>
+      </c>
+      <c r="S5">
+        <v>0.008818315717018348</v>
+      </c>
+      <c r="T5">
+        <v>0.008818315717018348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9005953333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.701786</v>
+      </c>
+      <c r="I6">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="J6">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.194209333333333</v>
+      </c>
+      <c r="N6">
+        <v>15.582628</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>4.677880685956445</v>
+      </c>
+      <c r="R6">
+        <v>42.100926173608</v>
+      </c>
+      <c r="S6">
+        <v>0.02490503443066491</v>
+      </c>
+      <c r="T6">
+        <v>0.02490503443066491</v>
       </c>
     </row>
   </sheetData>
